--- a/Document/Documentation/Analytics.xlsx
+++ b/Document/Documentation/Analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Desktop\Sportify.git\trunk\Document\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6361EC4F-B2DE-4341-978D-D0E8E9CFD4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E004F65C-BCDA-4A7B-8E99-C1290EA9ACA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FB95D7A4-BEE5-471B-AFD8-E9B849AF8DFC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Analitycs" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">Analitycs!$A$1:$E$116</definedName>
+    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">Analitycs!$A$1:$E$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -295,63 +295,35 @@
     <t>637kb</t>
   </si>
   <si>
-    <t>12527kb</t>
-  </si>
-  <si>
-    <t>12526kb</t>
-  </si>
-  <si>
-    <t>13459kb</t>
-  </si>
-  <si>
-    <t>12999kb</t>
-  </si>
-  <si>
-    <t>13097kb</t>
-  </si>
-  <si>
-    <t>13269kb</t>
-  </si>
-  <si>
-    <t>13273kb</t>
-  </si>
-  <si>
-    <t>13285kb</t>
-  </si>
-  <si>
-    <t>13288kb</t>
-  </si>
-  <si>
-    <t>13290kb</t>
-  </si>
-  <si>
-    <t>13291kb</t>
-  </si>
-  <si>
-    <t>14801kb</t>
-  </si>
-  <si>
-    <t>14952kb</t>
-  </si>
-  <si>
-    <t>15014kb</t>
-  </si>
-  <si>
-    <t>15408kb</t>
-  </si>
-  <si>
-    <t>16167kb</t>
-  </si>
-  <si>
-    <t>125930kb</t>
+    <t>531kb</t>
+  </si>
+  <si>
+    <t>447kb</t>
+  </si>
+  <si>
+    <t>445kb</t>
+  </si>
+  <si>
+    <t>446kb</t>
+  </si>
+  <si>
+    <t>667kb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -379,41 +351,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,11 +409,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60CB76EC-6A29-4372-920D-1BB8C334E7C4}" name="Analitycs" displayName="Analitycs" ref="A1:F117" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:F116" xr:uid="{60CB76EC-6A29-4372-920D-1BB8C334E7C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60CB76EC-6A29-4372-920D-1BB8C334E7C4}" name="Analitycs" displayName="Analitycs" ref="A1:F128" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:F127" xr:uid="{60CB76EC-6A29-4372-920D-1BB8C334E7C4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AAA0D3F5-9ED9-40A3-B772-2E6D703F8732}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E37F1152-CAB7-4156-A615-7289B3CAB0EC}" uniqueName="2" name=" Weight" queryTableFieldId="2" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AAA0D3F5-9ED9-40A3-B772-2E6D703F8732}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E37F1152-CAB7-4156-A615-7289B3CAB0EC}" uniqueName="2" name=" Weight" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{5F39086B-913A-4336-BF60-953F9B729504}" uniqueName="3" name=" Line Java" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{611EA80D-4261-4C3D-8537-13095FC9888B}" uniqueName="4" name=" Lines" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{94B7DCA9-08E1-4083-B968-31901621F607}" uniqueName="5" name=" Commit " queryTableFieldId="5"/>
@@ -755,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB39130-900F-4EDD-82AF-A3B4A488659F}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,10 +757,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>44494</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
@@ -812,10 +777,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>44497</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3">
@@ -833,10 +798,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>44498</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4">
@@ -854,10 +819,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>44501</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5">
@@ -875,10 +840,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>44502</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6">
@@ -896,10 +861,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>44504</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7">
@@ -917,10 +882,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>44506</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8">
@@ -938,10 +903,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>44507</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9">
@@ -959,10 +924,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>44508</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10">
@@ -980,10 +945,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>44509</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -1001,10 +966,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>44510</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12">
@@ -1022,10 +987,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>44511</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13">
@@ -1043,10 +1008,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>44512</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14">
@@ -1064,10 +1029,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>44513</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -1085,10 +1050,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>44514</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16">
@@ -1106,10 +1071,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>44515</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17">
@@ -1127,10 +1092,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>44516</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18">
@@ -1148,10 +1113,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>44517</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C19">
@@ -1169,10 +1134,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>44518</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20">
@@ -1190,10 +1155,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>44519</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21">
@@ -1211,10 +1176,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>44522</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C22">
@@ -1232,10 +1197,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>44523</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C23">
@@ -1253,10 +1218,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>44525</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C24">
@@ -1274,10 +1239,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>44530</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C25">
@@ -1295,10 +1260,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>44531</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C26">
@@ -1316,10 +1281,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>44532</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C27">
@@ -1337,10 +1302,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>44536</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C28">
@@ -1358,10 +1323,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="3">
         <v>44537</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C29">
@@ -1379,10 +1344,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>44538</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30">
@@ -1400,10 +1365,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>44539</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C31">
@@ -1421,10 +1386,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>44540</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C32">
@@ -1442,10 +1407,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>44541</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C33">
@@ -1463,10 +1428,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>44542</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C34">
@@ -1484,10 +1449,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>44543</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C35">
@@ -1505,10 +1470,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>44544</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C36">
@@ -1526,10 +1491,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="3">
         <v>44545</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C37">
@@ -1547,10 +1512,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
         <v>44546</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C38">
@@ -1568,10 +1533,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="3">
         <v>44550</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C39">
@@ -1589,10 +1554,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>44551</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C40">
@@ -1610,10 +1575,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="3">
         <v>44552</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C41">
@@ -1631,10 +1596,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
         <v>44553</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C42">
@@ -1652,10 +1617,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="3">
         <v>44554</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C43">
@@ -1673,10 +1638,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="3">
         <v>44556</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C44">
@@ -1694,10 +1659,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="3">
         <v>44557</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C45">
@@ -1715,10 +1680,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="3">
         <v>44558</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C46">
@@ -1736,10 +1701,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="3">
         <v>44561</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C47">
@@ -1757,10 +1722,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="3">
         <v>44563</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C48">
@@ -1778,10 +1743,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="3">
         <v>44564</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C49">
@@ -1799,10 +1764,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="3">
         <v>44565</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C50">
@@ -1820,10 +1785,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="A51" s="3">
         <v>44566</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C51">
@@ -1841,10 +1806,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="3">
         <v>44567</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C52">
@@ -1862,10 +1827,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="3">
         <v>44568</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C53">
@@ -1883,10 +1848,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="3">
         <v>44569</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C54">
@@ -1904,10 +1869,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="A55" s="3">
         <v>44570</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C55">
@@ -1925,10 +1890,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="A56" s="3">
         <v>44571</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C56">
@@ -1946,10 +1911,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="A57" s="3">
         <v>44572</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C57">
@@ -1967,10 +1932,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="3">
         <v>44573</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C58">
@@ -1988,10 +1953,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="A59" s="3">
         <v>44574</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C59">
@@ -2009,10 +1974,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="A60" s="3">
         <v>44575</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C60">
@@ -2030,10 +1995,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="A61" s="3">
         <v>44576</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C61">
@@ -2051,1167 +2016,1397 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="3">
         <v>44578</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>4159</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62">
         <v>8440</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62">
         <v>6</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62">
         <f>F61+Analitycs[[#This Row],[ Commit ]]</f>
         <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="A63" s="3">
         <v>44579</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63">
         <v>4349</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63">
         <v>8631</v>
       </c>
       <c r="E63">
         <f>Analitycs[[#This Row],['# Commit]]-F62</f>
         <v>8</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63">
         <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64" s="3">
         <v>44585</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64">
         <v>4436</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64">
         <v>8718</v>
       </c>
       <c r="E64">
         <f>Analitycs[[#This Row],['# Commit]]-F63</f>
         <v>2</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64">
         <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="A65" s="3">
         <v>44586</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65">
         <v>4520</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65">
         <v>8801</v>
       </c>
       <c r="E65">
         <f>Analitycs[[#This Row],['# Commit]]-F64</f>
         <v>3</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65">
         <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66" s="3">
         <v>44588</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66">
         <v>4626</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66">
         <v>8907</v>
       </c>
       <c r="E66">
         <f>Analitycs[[#This Row],['# Commit]]-F65</f>
         <v>2</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66">
         <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67" s="3">
         <v>44589</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67">
         <v>4678</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67">
         <v>8963</v>
       </c>
       <c r="E67">
         <f>Analitycs[[#This Row],['# Commit]]-F66</f>
         <v>12</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67">
         <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="A68" s="3">
         <v>44590</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68">
         <v>4715</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68">
         <v>9000</v>
       </c>
       <c r="E68">
         <f>Analitycs[[#This Row],['# Commit]]-F67</f>
         <v>1</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68">
         <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69" s="3">
         <v>44591</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69">
         <v>4782</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69">
         <v>9069</v>
       </c>
       <c r="E69">
         <f>Analitycs[[#This Row],['# Commit]]-F68</f>
         <v>1</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69">
         <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="A70" s="3">
         <v>44592</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70">
         <v>4782</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70">
         <v>9069</v>
       </c>
       <c r="E70">
         <f>Analitycs[[#This Row],['# Commit]]-F69</f>
         <v>4</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70">
         <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71" s="3">
         <v>44593</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71">
         <v>4867</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71">
         <v>9159</v>
       </c>
       <c r="E71">
         <f>Analitycs[[#This Row],['# Commit]]-F70</f>
         <v>1</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71">
         <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="A72" s="3">
         <v>44594</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72">
         <v>5030</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72">
         <v>9415</v>
       </c>
       <c r="E72">
         <f>Analitycs[[#This Row],['# Commit]]-F71</f>
         <v>2</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72">
         <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="A73" s="3">
         <v>44595</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <v>5071</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73">
         <v>9918</v>
       </c>
       <c r="E73">
         <f>Analitycs[[#This Row],['# Commit]]-F72</f>
         <v>6</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73">
         <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="A74" s="3">
         <v>44596</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74">
         <v>5239</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74">
         <v>10317</v>
       </c>
       <c r="E74">
         <f>Analitycs[[#This Row],['# Commit]]-F73</f>
         <v>9</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74">
         <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="A75" s="3">
         <v>44597</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <v>5239</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75">
         <v>10862</v>
       </c>
       <c r="E75">
         <f>Analitycs[[#This Row],['# Commit]]-F74</f>
         <v>2</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75">
         <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+      <c r="A76" s="3">
         <v>44598</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76">
         <v>5257</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76">
         <v>10661</v>
       </c>
       <c r="E76">
         <f>Analitycs[[#This Row],['# Commit]]-F75</f>
         <v>5</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76">
         <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="A77" s="3">
         <v>44599</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77">
         <v>5468</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77">
         <v>10820</v>
       </c>
       <c r="E77">
         <f>Analitycs[[#This Row],['# Commit]]-F76</f>
         <v>13</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77">
         <v>386</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+      <c r="A78" s="3">
         <v>44600</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <v>5716</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78">
         <v>11077</v>
       </c>
       <c r="E78">
         <f>Analitycs[[#This Row],['# Commit]]-F77</f>
         <v>9</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78">
         <v>395</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+      <c r="A79" s="3">
         <v>44601</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79">
         <v>5895</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79">
         <v>11271</v>
       </c>
       <c r="E79">
         <f>Analitycs[[#This Row],['# Commit]]-F78</f>
         <v>7</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79">
         <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
+      <c r="A80" s="3">
         <v>44602</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80">
         <v>6048</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80">
         <v>11425</v>
       </c>
       <c r="E80">
         <f>Analitycs[[#This Row],['# Commit]]-F79</f>
         <v>3</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80">
         <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+      <c r="A81" s="3">
         <v>44603</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81">
         <v>6048</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81">
         <v>11425</v>
       </c>
       <c r="E81">
         <f>Analitycs[[#This Row],['# Commit]]-F80</f>
         <v>1</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81">
         <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+      <c r="A82" s="3">
         <v>44606</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82">
         <v>6128</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82">
         <v>11510</v>
       </c>
       <c r="E82">
         <f>Analitycs[[#This Row],['# Commit]]-F81</f>
         <v>5</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82">
         <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+      <c r="A83" s="3">
         <v>44607</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83">
         <v>6124</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83">
         <v>11493</v>
       </c>
       <c r="E83">
         <f>Analitycs[[#This Row],['# Commit]]-F82</f>
         <v>1</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83">
         <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
+      <c r="A84" s="3">
         <v>44608</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84">
         <v>6144</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84">
         <v>11495</v>
       </c>
       <c r="E84">
         <f>Analitycs[[#This Row],['# Commit]]-F83</f>
         <v>3</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84">
         <v>415</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
+      <c r="A85" s="3">
         <v>44609</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85">
         <v>6140</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85">
         <v>11494</v>
       </c>
       <c r="E85">
         <f>Analitycs[[#This Row],['# Commit]]-F84</f>
         <v>2</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85">
         <v>417</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
+      <c r="A86" s="3">
         <v>44610</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86">
         <v>6363</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86">
         <v>11708</v>
       </c>
       <c r="E86">
         <f>Analitycs[[#This Row],['# Commit]]-F85</f>
         <v>5</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86">
         <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+      <c r="A87" s="3">
         <v>44611</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87">
         <v>6360</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87">
         <v>11691</v>
       </c>
       <c r="E87">
         <f>Analitycs[[#This Row],['# Commit]]-F86</f>
         <v>7</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87">
         <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
+      <c r="A88" s="3">
         <v>44612</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88">
         <v>6426</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88">
         <v>11757</v>
       </c>
       <c r="E88">
         <f>Analitycs[[#This Row],['# Commit]]-F87</f>
         <v>1</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88">
         <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+      <c r="A89" s="3">
         <v>44613</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>6475</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>11806</v>
       </c>
       <c r="E89">
         <f>Analitycs[[#This Row],['# Commit]]-F88</f>
         <v>1</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89">
         <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
+      <c r="A90" s="3">
         <v>44614</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>6488</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>11819</v>
       </c>
       <c r="E90">
         <f>Analitycs[[#This Row],['# Commit]]-F89</f>
         <v>3</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90">
         <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
+      <c r="A91" s="3">
         <v>44615</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>6492</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>11846</v>
       </c>
       <c r="E91">
         <f>Analitycs[[#This Row],['# Commit]]-F90</f>
         <v>8</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91">
         <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="7">
+      <c r="A92" s="3">
         <v>44617</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>6553</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>11910</v>
       </c>
       <c r="E92">
         <f>Analitycs[[#This Row],['# Commit]]-F91</f>
         <v>3</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92">
         <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
+      <c r="A93" s="3">
         <v>44618</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>6730</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>12087</v>
       </c>
       <c r="E93">
         <f>Analitycs[[#This Row],['# Commit]]-F92</f>
         <v>3</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93">
         <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+      <c r="A94" s="3">
         <v>44619</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>6730</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>12087</v>
       </c>
       <c r="E94">
         <f>Analitycs[[#This Row],['# Commit]]-F93</f>
         <v>1</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94">
         <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+      <c r="A95" s="3">
         <v>44625</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>6996</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>12353</v>
       </c>
       <c r="E95">
         <f>Analitycs[[#This Row],['# Commit]]-F94</f>
         <v>3</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95">
         <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+      <c r="A96" s="3">
         <v>44627</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>7075</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>12432</v>
       </c>
       <c r="E96">
         <f>Analitycs[[#This Row],['# Commit]]-F95</f>
         <v>4</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96">
         <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="A97" s="3">
         <v>44646</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>7205</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>12639</v>
       </c>
       <c r="E97">
         <f>Analitycs[[#This Row],['# Commit]]-F96</f>
         <v>2</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97">
         <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+      <c r="A98" s="3">
         <v>44647</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" s="3">
+      <c r="B98" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98">
         <v>7323</v>
       </c>
-      <c r="D98" s="3">
-        <v>67447</v>
+      <c r="D98">
+        <v>10461</v>
       </c>
       <c r="E98">
         <f>Analitycs[[#This Row],['# Commit]]-F97</f>
         <v>3</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98">
         <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+      <c r="A99" s="3">
         <v>44897</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" s="3">
+      <c r="B99" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99">
         <v>7302</v>
       </c>
-      <c r="D99" s="3">
-        <v>67392</v>
+      <c r="D99">
+        <v>10406</v>
       </c>
       <c r="E99">
         <f>Analitycs[[#This Row],['# Commit]]-F98</f>
         <v>1</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99">
         <v>462</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="A100" s="3">
         <v>44900</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" s="3">
+      <c r="B100" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100">
         <v>7306</v>
       </c>
-      <c r="D100" s="3">
-        <v>67396</v>
+      <c r="D100">
+        <v>10403</v>
       </c>
       <c r="E100">
         <f>Analitycs[[#This Row],['# Commit]]-F99</f>
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100">
         <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+      <c r="A101" s="3">
         <v>44901</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <v>7304</v>
       </c>
-      <c r="D101" s="3">
-        <v>73931</v>
+      <c r="D101">
+        <v>10403</v>
       </c>
       <c r="E101">
         <f>Analitycs[[#This Row],['# Commit]]-F100</f>
         <v>1</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101">
         <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+      <c r="A102" s="3">
         <v>44902</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <v>7305</v>
       </c>
-      <c r="D102" s="3">
-        <v>71038</v>
+      <c r="D102">
+        <v>10404</v>
       </c>
       <c r="E102">
         <f>Analitycs[[#This Row],['# Commit]]-F101</f>
         <v>5</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102">
         <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="7">
+      <c r="A103" s="3">
         <v>44910</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>7305</v>
       </c>
-      <c r="D103" s="3">
-        <v>71038</v>
+      <c r="D103">
+        <v>10404</v>
       </c>
       <c r="E103">
         <f>Analitycs[[#This Row],['# Commit]]-F102</f>
         <v>1</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103">
         <v>472</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="7">
+      <c r="A104" s="3">
         <v>44915</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C104" s="3">
+      <c r="B104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104">
         <v>7305</v>
       </c>
-      <c r="D104" s="3">
-        <v>71965</v>
+      <c r="D104">
+        <v>10404</v>
       </c>
       <c r="E104">
         <f>Analitycs[[#This Row],['# Commit]]-F103</f>
         <v>1</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104">
         <v>473</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
+      <c r="A105" s="3">
         <v>44916</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C105" s="3">
-        <v>7348</v>
-      </c>
-      <c r="D105" s="3">
-        <v>73045</v>
+      <c r="B105" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105">
+        <v>7305</v>
+      </c>
+      <c r="D105">
+        <v>10404</v>
       </c>
       <c r="E105">
         <f>Analitycs[[#This Row],['# Commit]]-F104</f>
         <v>27</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105">
         <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
+      <c r="A106" s="3">
         <v>44917</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" s="3">
-        <v>7348</v>
-      </c>
-      <c r="D106" s="3">
-        <v>73121</v>
+      <c r="B106" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106">
+        <v>7305</v>
+      </c>
+      <c r="D106">
+        <v>10404</v>
       </c>
       <c r="E106">
         <f>Analitycs[[#This Row],['# Commit]]-F105</f>
         <v>20</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106">
         <v>520</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="7">
+      <c r="A107" s="3">
         <v>44921</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C107" s="3">
-        <v>7338</v>
-      </c>
-      <c r="D107" s="3">
-        <v>73502</v>
+      <c r="B107" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107">
+        <v>7305</v>
+      </c>
+      <c r="D107">
+        <v>10404</v>
       </c>
       <c r="E107">
         <f>Analitycs[[#This Row],['# Commit]]-F106</f>
         <v>56</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107">
         <v>576</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
+      <c r="A108" s="3">
         <v>44922</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C108" s="3">
-        <v>7377</v>
-      </c>
-      <c r="D108" s="3">
-        <v>73559</v>
+      <c r="B108" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108">
+        <v>7305</v>
+      </c>
+      <c r="D108">
+        <v>10404</v>
       </c>
       <c r="E108">
         <f>Analitycs[[#This Row],['# Commit]]-F107</f>
         <v>26</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108">
         <v>602</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
+      <c r="A109" s="3">
         <v>44923</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C109" s="3">
-        <v>7394</v>
-      </c>
-      <c r="D109" s="3">
-        <v>73608</v>
+      <c r="B109" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109">
+        <v>7305</v>
+      </c>
+      <c r="D109">
+        <v>10404</v>
       </c>
       <c r="E109">
         <f>Analitycs[[#This Row],['# Commit]]-F108</f>
         <v>44</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109">
         <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+      <c r="A110" s="3">
         <v>44924</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C110" s="3">
-        <v>7357</v>
-      </c>
-      <c r="D110" s="3">
-        <v>73622</v>
+      <c r="B110" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110">
+        <v>7305</v>
+      </c>
+      <c r="D110">
+        <v>10404</v>
       </c>
       <c r="E110">
         <f>Analitycs[[#This Row],['# Commit]]-F109</f>
         <v>27</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110">
         <v>673</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="7">
+      <c r="A111" s="3">
         <v>44925</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C111" s="3">
-        <v>7357</v>
-      </c>
-      <c r="D111" s="3">
-        <v>87345</v>
+      <c r="B111" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111">
+        <v>7305</v>
+      </c>
+      <c r="D111">
+        <v>10404</v>
       </c>
       <c r="E111">
         <f>Analitycs[[#This Row],['# Commit]]-F110</f>
         <v>8</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111">
         <v>681</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
+      <c r="A112" s="3">
         <v>44927</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C112" s="3">
-        <v>7356</v>
-      </c>
-      <c r="D112" s="3">
-        <v>93112</v>
+      <c r="B112" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112">
+        <v>7305</v>
+      </c>
+      <c r="D112">
+        <v>10404</v>
       </c>
       <c r="E112">
         <f>Analitycs[[#This Row],['# Commit]]-F111</f>
         <v>1</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112">
         <v>682</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>44928</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C113" s="3">
-        <v>7376</v>
-      </c>
-      <c r="D113" s="3">
-        <v>95565</v>
+      <c r="B113" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113">
+        <v>7305</v>
+      </c>
+      <c r="D113">
+        <v>10404</v>
       </c>
       <c r="E113">
         <f>Analitycs[[#This Row],['# Commit]]-F112</f>
         <v>4</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113">
         <v>686</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="7">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>44929</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C114" s="3">
-        <v>7376</v>
-      </c>
-      <c r="D114" s="3">
-        <v>100227</v>
+      <c r="B114" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114">
+        <v>7305</v>
+      </c>
+      <c r="D114">
+        <v>10404</v>
       </c>
       <c r="E114">
         <f>Analitycs[[#This Row],['# Commit]]-F113</f>
         <v>4</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114">
         <v>690</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="7">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>44930</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C115" s="3">
-        <v>7380</v>
-      </c>
-      <c r="D115" s="3">
-        <v>113128</v>
+      <c r="B115" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115">
+        <v>7305</v>
+      </c>
+      <c r="D115">
+        <v>10404</v>
       </c>
       <c r="E115">
         <f>Analitycs[[#This Row],['# Commit]]-F114</f>
         <v>5</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115">
         <v>695</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="7">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>44931</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C116" s="3">
-        <v>7380</v>
-      </c>
-      <c r="D116" s="3">
-        <v>778645</v>
+      <c r="B116" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116">
+        <v>7305</v>
+      </c>
+      <c r="D116">
+        <v>10404</v>
       </c>
       <c r="E116">
         <f>Analitycs[[#This Row],['# Commit]]-F115</f>
         <v>2</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116">
         <v>697</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="2"/>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>44932</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117">
+        <v>7305</v>
+      </c>
+      <c r="D117">
+        <v>10404</v>
+      </c>
+      <c r="E117">
+        <f>Analitycs[[#This Row],['# Commit]]-F116</f>
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>44934</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118">
+        <v>7305</v>
+      </c>
+      <c r="D118">
+        <v>10404</v>
+      </c>
+      <c r="E118">
+        <f>Analitycs[[#This Row],['# Commit]]-F117</f>
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119">
+        <v>7305</v>
+      </c>
+      <c r="D119">
+        <v>10404</v>
+      </c>
+      <c r="E119">
+        <f>Analitycs[[#This Row],['# Commit]]-F118</f>
+        <v>5</v>
+      </c>
+      <c r="F119">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120">
+        <v>7305</v>
+      </c>
+      <c r="D120">
+        <v>10404</v>
+      </c>
+      <c r="E120">
+        <f>Analitycs[[#This Row],['# Commit]]-F119</f>
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>44939</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121">
+        <v>7305</v>
+      </c>
+      <c r="D121">
+        <v>10404</v>
+      </c>
+      <c r="E121">
+        <f>Analitycs[[#This Row],['# Commit]]-F120</f>
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122">
+        <v>7305</v>
+      </c>
+      <c r="D122">
+        <v>10404</v>
+      </c>
+      <c r="E122">
+        <f>Analitycs[[#This Row],['# Commit]]-F121</f>
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>44955</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123">
+        <v>7305</v>
+      </c>
+      <c r="D123">
+        <v>10404</v>
+      </c>
+      <c r="E123">
+        <f>Analitycs[[#This Row],['# Commit]]-F122</f>
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>44956</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124">
+        <v>7305</v>
+      </c>
+      <c r="D124">
+        <v>10404</v>
+      </c>
+      <c r="E124">
+        <f>Analitycs[[#This Row],['# Commit]]-F123</f>
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125">
+        <v>7305</v>
+      </c>
+      <c r="D125">
+        <v>10404</v>
+      </c>
+      <c r="E125">
+        <f>Analitycs[[#This Row],['# Commit]]-F124</f>
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>44961</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C126">
+        <v>8043</v>
+      </c>
+      <c r="D126">
+        <v>15505</v>
+      </c>
+      <c r="E126">
+        <f>Analitycs[[#This Row],['# Commit]]-F125</f>
+        <v>16</v>
+      </c>
+      <c r="F126">
+        <v>728</v>
+      </c>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>44962</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127">
+        <v>8717</v>
+      </c>
+      <c r="D127">
+        <v>13528</v>
+      </c>
+      <c r="E127">
+        <f>Analitycs[[#This Row],['# Commit]]-F126</f>
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>734</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Document/Documentation/Analytics.xlsx
+++ b/Document/Documentation/Analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Desktop\Sportify.git\trunk\Document\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E004F65C-BCDA-4A7B-8E99-C1290EA9ACA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6B887E-E9F3-4F8F-8BCC-81474E10EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FB95D7A4-BEE5-471B-AFD8-E9B849AF8DFC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Analitycs" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">Analitycs!$A$1:$E$127</definedName>
+    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">Analitycs!$A$1:$E$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>667kb</t>
+  </si>
+  <si>
+    <t>615kb</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -409,8 +412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60CB76EC-6A29-4372-920D-1BB8C334E7C4}" name="Analitycs" displayName="Analitycs" ref="A1:F128" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:F127" xr:uid="{60CB76EC-6A29-4372-920D-1BB8C334E7C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60CB76EC-6A29-4372-920D-1BB8C334E7C4}" name="Analitycs" displayName="Analitycs" ref="A1:F129" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:F128" xr:uid="{60CB76EC-6A29-4372-920D-1BB8C334E7C4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AAA0D3F5-9ED9-40A3-B772-2E6D703F8732}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="2" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E37F1152-CAB7-4156-A615-7289B3CAB0EC}" uniqueName="2" name=" Weight" queryTableFieldId="2" dataDxfId="1"/>
@@ -720,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB39130-900F-4EDD-82AF-A3B4A488659F}">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E128" sqref="E2:E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,7 +3366,7 @@
       <c r="A126" s="3">
         <v>44961</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C126">
@@ -3379,13 +3382,13 @@
       <c r="F126">
         <v>728</v>
       </c>
-      <c r="I126" s="5"/>
+      <c r="I126" s="4"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>44962</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C127">
@@ -3400,6 +3403,27 @@
       </c>
       <c r="F127">
         <v>734</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>44963</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128">
+        <v>11248</v>
+      </c>
+      <c r="D128">
+        <v>16491</v>
+      </c>
+      <c r="E128">
+        <f>Analitycs[[#This Row],['# Commit]]-F127</f>
+        <v>16</v>
+      </c>
+      <c r="F128">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
